--- a/biology/Botanique/Coronilla/Coronilla.xlsx
+++ b/biology/Botanique/Coronilla/Coronilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coronilles (du latin Coronilla) forment un genre composé de onze espèces de la famille des Fabaceae, toutes originaires de l'Europe et de la région méditerranéenne.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre doit son nom au latin corona signifiant « couronne » en référence à l'inflorescence en ombelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre doit son nom au latin corona signifiant « couronne » en référence à l'inflorescence en ombelle.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les coronilles doivent être considérées comme toxiques en raison de la présence, surtout dans les graines, d'hétérosides cardiotoxiques proches de ceux de la digitale (coronilloside, hyrcanoside), et dans les fleurs d'un alcaloïde, la cytisine[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les coronilles doivent être considérées comme toxiques en raison de la présence, surtout dans les graines, d'hétérosides cardiotoxiques proches de ceux de la digitale (coronilloside, hyrcanoside), et dans les fleurs d'un alcaloïde, la cytisine.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les coronilles herbacées ressemblent à des vesces mais leurs feuilles composées ne sont pas terminées par une vrille. Les coronilles arbrisseaux pourraient être confondues avec le genêt à balais dont les boutons floraux sont parfois conservés dans le vinaigre comme les câpres et les graines torréfiées utilisées comme succédané du café[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coronilles herbacées ressemblent à des vesces mais leurs feuilles composées ne sont pas terminées par une vrille. Les coronilles arbrisseaux pourraient être confondues avec le genêt à balais dont les boutons floraux sont parfois conservés dans le vinaigre comme les câpres et les graines torréfiées utilisées comme succédané du café.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (22 mai 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (22 mai 2022) :
 Coronilla atlantica (Boiss. &amp; Reut.) Boiss.
 Coronilla carinata (Lassen) D.D.Sokoloff
 Coronilla coronata L.
